--- a/bahamas/web/template/template.xlsx
+++ b/bahamas/web/template/template.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thali\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mong/Desktop/twc2/bahamas/web/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9080"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -104,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
@@ -149,16 +152,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,68 +487,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36596</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -581,9 +622,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -619,9 +660,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -654,44 +695,6 @@
         <v>36596</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2">
-        <v>36596</v>
-      </c>
-      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
